--- a/app/static/upload_for_csv/invoice.xlsx
+++ b/app/static/upload_for_csv/invoice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="173">
   <si>
     <t>DocNumber</t>
   </si>
@@ -340,45 +340,78 @@
     <t>202895069</t>
   </si>
   <si>
+    <t>000970165</t>
+  </si>
+  <si>
     <t>175405647</t>
   </si>
   <si>
     <t>812114069</t>
   </si>
   <si>
+    <t>0009701650121</t>
+  </si>
+  <si>
+    <t>0009701650136</t>
+  </si>
+  <si>
     <t>BG202895069</t>
   </si>
   <si>
+    <t>BG000970165</t>
+  </si>
+  <si>
     <t>BG175405647</t>
   </si>
   <si>
     <t>BG812114069</t>
   </si>
   <si>
+    <t>BG0009701650121</t>
+  </si>
+  <si>
+    <t>BG0009701650136</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ТБД - ТОВАРНИ ПРЕВОЗИ ЕАД</t>
   </si>
   <si>
+    <t>ОБЩИНА ЕЛХОВО</t>
+  </si>
+  <si>
     <t>БДЖ - ПЪТНИЧЕСКИ ПРЕВОЗИ ЕООД</t>
   </si>
   <si>
     <t>ЛУКОЙЛ НЕФТОХИМ БУРГАС АД</t>
   </si>
   <si>
+    <t>ОБЩИНСКА ПРОСВЕТА</t>
+  </si>
+  <si>
+    <t>СЛУЖБА СОЦИАЛНИ ДЕЙНОСТИ</t>
+  </si>
+  <si>
     <t>ФАКТУРА</t>
   </si>
   <si>
     <t>пл.Св.Иван Рилски 1</t>
   </si>
   <si>
+    <t>ул. „Търговска” № 13</t>
+  </si>
+  <si>
     <t>ул.Иван Вазов 3</t>
   </si>
   <si>
     <t>област Бургас</t>
   </si>
   <si>
+    <t>ул.Калоян 13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Таня Калайджиева </t>
   </si>
   <si>
@@ -394,6 +427,9 @@
     <t>ПЕРНИК</t>
   </si>
   <si>
+    <t>ЕЛХОВО</t>
+  </si>
+  <si>
     <t>СОФИЯ</t>
   </si>
   <si>
@@ -418,6 +454,9 @@
     <t>10.11.2020</t>
   </si>
   <si>
+    <t>5.12.2020</t>
+  </si>
+  <si>
     <t>3.12.2020</t>
   </si>
   <si>
@@ -442,28 +481,58 @@
     <t>411-3-58</t>
   </si>
   <si>
+    <t>411-3-466</t>
+  </si>
+  <si>
     <t>411-2-145</t>
   </si>
   <si>
     <t>411-2-351</t>
   </si>
   <si>
+    <t>411-3-469</t>
+  </si>
+  <si>
+    <t>411-3-468</t>
+  </si>
+  <si>
     <t>2020-10_ТБД - ТОВАРНИ ПРЕВОЗИ_411-3-58_1_invoice_reference.xlsx</t>
   </si>
   <si>
+    <t>2020-10_ОБЩИНА ЕЛХОВО_411-3-466_1_invoice_reference.xlsx</t>
+  </si>
+  <si>
     <t>2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx</t>
   </si>
   <si>
+    <t>2020-10_ОБЩИНА ЕЛХОВО - ПРОСВЕТА_411-3-469_1_invoice_reference.xlsx</t>
+  </si>
+  <si>
+    <t>2020-10_ОБЩИНА ЕЛХОВО - ССД_411-3-468_1_invoice_reference.xlsx</t>
+  </si>
+  <si>
     <t>fso@tbd-tp.bg</t>
   </si>
   <si>
+    <t>obshtina@elhovobg.org</t>
+  </si>
+  <si>
     <t>energy_ee@bdz.bg;vkunova@bdz.bg</t>
   </si>
   <si>
     <t>411-3-58_1</t>
   </si>
   <si>
+    <t>411-3-466_1</t>
+  </si>
+  <si>
     <t>411-2-145_1</t>
+  </si>
+  <si>
+    <t>411-3-469_1</t>
+  </si>
+  <si>
+    <t>411-3-468_1</t>
   </si>
 </sst>
 </file>
@@ -821,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW12"/>
+  <dimension ref="A1:CW24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1164,13 +1233,13 @@
         <v>256</v>
       </c>
       <c r="L2">
-        <v>115923.12</v>
+        <v>115923.13</v>
       </c>
       <c r="M2">
-        <v>23184.62</v>
+        <v>23184.63</v>
       </c>
       <c r="N2">
-        <v>139107.75</v>
+        <v>139107.76</v>
       </c>
       <c r="O2" t="s">
         <v>101</v>
@@ -1182,25 +1251,25 @@
         <v>107</v>
       </c>
       <c r="R2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z2">
         <v>56</v>
@@ -1215,40 +1284,40 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG2">
         <v>201208860</v>
       </c>
       <c r="AH2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AU2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW2">
         <v>1</v>
@@ -1257,19 +1326,16 @@
         <v>100</v>
       </c>
       <c r="BA2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="BD2">
         <v>0</v>
       </c>
-      <c r="BK2" t="s">
-        <v>113</v>
-      </c>
       <c r="BL2" t="s">
         <v>100</v>
       </c>
       <c r="BM2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN2">
         <v>1</v>
@@ -1281,43 +1347,40 @@
         <v>99</v>
       </c>
       <c r="BQ2">
-        <v>93707.757</v>
+        <v>93707.75999999999</v>
       </c>
       <c r="BR2">
-        <v>112449.307</v>
+        <v>112449.31</v>
       </c>
       <c r="BS2">
-        <v>3699205</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>137</v>
+        <v>3699288</v>
       </c>
       <c r="BU2">
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>80024</v>
       </c>
       <c r="BY2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE2">
         <v>73</v>
@@ -1329,28 +1392,28 @@
         <v>0</v>
       </c>
       <c r="CO2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="CQ2">
         <v>411358</v>
       </c>
       <c r="CR2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="CS2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="CT2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="CU2">
         <v>100058001</v>
       </c>
       <c r="CV2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="CW2">
         <v>0</v>
@@ -1391,13 +1454,13 @@
         <v>256</v>
       </c>
       <c r="L3">
-        <v>115923.12</v>
+        <v>115923.13</v>
       </c>
       <c r="M3">
-        <v>23184.62</v>
+        <v>23184.63</v>
       </c>
       <c r="N3">
-        <v>139107.75</v>
+        <v>139107.76</v>
       </c>
       <c r="O3" t="s">
         <v>102</v>
@@ -1409,25 +1472,25 @@
         <v>107</v>
       </c>
       <c r="R3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z3">
         <v>56</v>
@@ -1442,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG3">
         <v>201208860</v>
       </c>
       <c r="AH3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="AU3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1484,19 +1547,16 @@
         <v>100</v>
       </c>
       <c r="BA3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
-      <c r="BK3" t="s">
-        <v>113</v>
-      </c>
       <c r="BL3" t="s">
         <v>100</v>
       </c>
       <c r="BM3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN3">
         <v>1</v>
@@ -1514,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>3699206</v>
+        <v>3699289</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1526,22 +1586,22 @@
         <v>83774</v>
       </c>
       <c r="BY3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE3">
         <v>73</v>
@@ -1553,28 +1613,28 @@
         <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="CQ3">
         <v>411358</v>
       </c>
       <c r="CR3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="CS3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="CT3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="CU3">
         <v>100058001</v>
       </c>
       <c r="CV3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="CW3">
         <v>0</v>
@@ -1615,13 +1675,13 @@
         <v>256</v>
       </c>
       <c r="L4">
-        <v>115923.12</v>
+        <v>115923.13</v>
       </c>
       <c r="M4">
-        <v>23184.62</v>
+        <v>23184.63</v>
       </c>
       <c r="N4">
-        <v>139107.75</v>
+        <v>139107.76</v>
       </c>
       <c r="O4" t="s">
         <v>102</v>
@@ -1633,25 +1693,25 @@
         <v>107</v>
       </c>
       <c r="R4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z4">
         <v>56</v>
@@ -1660,46 +1720,46 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>21.47</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG4">
         <v>201208860</v>
       </c>
       <c r="AH4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI4">
         <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AU4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1708,19 +1768,16 @@
         <v>100</v>
       </c>
       <c r="BA4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BK4" t="s">
-        <v>113</v>
-      </c>
       <c r="BL4" t="s">
         <v>100</v>
       </c>
       <c r="BM4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN4">
         <v>1</v>
@@ -1738,7 +1795,7 @@
         <v>24386.7382</v>
       </c>
       <c r="BS4">
-        <v>3699207</v>
+        <v>3699290</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -1750,22 +1807,22 @@
         <v>80772</v>
       </c>
       <c r="BY4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE4">
         <v>73</v>
@@ -1777,28 +1834,28 @@
         <v>0</v>
       </c>
       <c r="CO4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="CQ4">
         <v>411358</v>
       </c>
       <c r="CR4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="CS4" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="CT4" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="CU4">
         <v>100058001</v>
       </c>
       <c r="CV4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="CW4">
         <v>0</v>
@@ -1839,13 +1896,13 @@
         <v>256</v>
       </c>
       <c r="L5">
-        <v>115923.12</v>
+        <v>115923.13</v>
       </c>
       <c r="M5">
-        <v>23184.62</v>
+        <v>23184.63</v>
       </c>
       <c r="N5">
-        <v>139107.75</v>
+        <v>139107.76</v>
       </c>
       <c r="O5" t="s">
         <v>102</v>
@@ -1857,25 +1914,25 @@
         <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z5">
         <v>56</v>
@@ -1884,46 +1941,46 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG5">
         <v>201208860</v>
       </c>
       <c r="AH5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI5">
         <v>1</v>
       </c>
       <c r="AK5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AU5" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -1932,19 +1989,16 @@
         <v>100</v>
       </c>
       <c r="BA5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
-      <c r="BK5" t="s">
-        <v>113</v>
-      </c>
       <c r="BL5" t="s">
         <v>100</v>
       </c>
       <c r="BM5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN5">
         <v>1</v>
@@ -1962,7 +2016,7 @@
         <v>2271.706</v>
       </c>
       <c r="BS5">
-        <v>3699208</v>
+        <v>3699291</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -1974,22 +2028,22 @@
         <v>75271</v>
       </c>
       <c r="BY5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ5" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE5">
         <v>73</v>
@@ -2001,28 +2055,28 @@
         <v>0</v>
       </c>
       <c r="CO5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP5" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="CQ5">
         <v>411358</v>
       </c>
       <c r="CR5" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="CS5" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="CT5" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="CU5">
         <v>100058001</v>
       </c>
       <c r="CV5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -2030,28 +2084,28 @@
     </row>
     <row r="6" spans="1:101">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>16142</v>
+        <v>16147</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>76.946</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>80.24648000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>6174.61</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1234.92</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7409.53</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2063,43 +2117,43 @@
         <v>256</v>
       </c>
       <c r="L6">
-        <v>1419665.27</v>
+        <v>13086.05</v>
       </c>
       <c r="M6">
-        <v>283933.05</v>
+        <v>2617.21</v>
       </c>
       <c r="N6">
-        <v>1703598.32</v>
+        <v>15703.26</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
         <v>108</v>
       </c>
       <c r="R6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="V6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z6">
         <v>56</v>
@@ -2108,112 +2162,115 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>80.24648000000001</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG6">
         <v>201208860</v>
       </c>
       <c r="AH6" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI6">
         <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AR6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AU6" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="s">
         <v>100</v>
       </c>
       <c r="BA6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BK6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BL6" t="s">
         <v>100</v>
       </c>
       <c r="BM6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN6">
         <v>1</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>80.24648000000001</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>80.24648000000001</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>6174.6135</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>7409.5335</v>
       </c>
       <c r="BS6">
-        <v>3699202</v>
+        <v>3699793</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>150</v>
       </c>
       <c r="BU6">
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>83774</v>
+        <v>80024</v>
       </c>
       <c r="BY6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB6" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE6">
         <v>73</v>
@@ -2225,28 +2282,28 @@
         <v>0</v>
       </c>
       <c r="CO6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP6" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="CQ6">
-        <v>4112145</v>
+        <v>4113466</v>
       </c>
       <c r="CR6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="CS6" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="CT6" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="CU6">
-        <v>100145001</v>
+        <v>100466001</v>
       </c>
       <c r="CV6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="CW6">
         <v>0</v>
@@ -2254,28 +2311,28 @@
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>16142</v>
+        <v>16147</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>11414.853</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>100.9</v>
+        <v>5105.53</v>
       </c>
       <c r="F7">
-        <v>1151758.67</v>
+        <v>5105.53</v>
       </c>
       <c r="G7">
-        <v>230351.73</v>
+        <v>1021.11</v>
       </c>
       <c r="H7">
-        <v>1382110.4</v>
+        <v>6126.64</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2287,43 +2344,43 @@
         <v>256</v>
       </c>
       <c r="L7">
-        <v>1419665.27</v>
+        <v>13086.05</v>
       </c>
       <c r="M7">
-        <v>283933.05</v>
+        <v>2617.21</v>
       </c>
       <c r="N7">
-        <v>1703598.32</v>
+        <v>15703.26</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
         <v>108</v>
       </c>
       <c r="R7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="V7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z7">
         <v>56</v>
@@ -2332,115 +2389,112 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>100.9</v>
+        <v>5105.53</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG7">
         <v>201208860</v>
       </c>
       <c r="AH7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI7">
         <v>1</v>
       </c>
       <c r="AK7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="AU7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="s">
         <v>100</v>
       </c>
       <c r="BA7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BK7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BL7" t="s">
         <v>100</v>
       </c>
       <c r="BM7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN7">
         <v>1</v>
       </c>
       <c r="BO7">
-        <v>100.9</v>
+        <v>5105.53</v>
       </c>
       <c r="BP7">
-        <v>100.9</v>
+        <v>5105.53</v>
       </c>
       <c r="BQ7">
-        <v>1151758.6677</v>
+        <v>5105.53</v>
       </c>
       <c r="BR7">
-        <v>1382110.3977</v>
+        <v>6126.64</v>
       </c>
       <c r="BS7">
-        <v>3699201</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>137</v>
+        <v>3699794</v>
       </c>
       <c r="BU7">
         <v>0</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7">
-        <v>80024</v>
+        <v>83774</v>
       </c>
       <c r="BY7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE7">
         <v>73</v>
@@ -2452,28 +2506,28 @@
         <v>0</v>
       </c>
       <c r="CO7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="CQ7">
-        <v>4112145</v>
+        <v>4113466</v>
       </c>
       <c r="CR7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="CS7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="CT7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="CU7">
-        <v>100145001</v>
+        <v>100466001</v>
       </c>
       <c r="CV7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="CW7">
         <v>0</v>
@@ -2481,28 +2535,28 @@
     </row>
     <row r="8" spans="1:101">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>16142</v>
+        <v>16147</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
       </c>
       <c r="D8">
-        <v>11414.853</v>
+        <v>76.946</v>
       </c>
       <c r="E8">
         <v>21.47</v>
       </c>
       <c r="F8">
-        <v>245076.89</v>
+        <v>1652.02</v>
       </c>
       <c r="G8">
-        <v>49015.38</v>
+        <v>330.4</v>
       </c>
       <c r="H8">
-        <v>294092.27</v>
+        <v>1982.42</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2514,13 +2568,13 @@
         <v>256</v>
       </c>
       <c r="L8">
-        <v>1419665.27</v>
+        <v>13086.05</v>
       </c>
       <c r="M8">
-        <v>283933.05</v>
+        <v>2617.21</v>
       </c>
       <c r="N8">
-        <v>1703598.32</v>
+        <v>15703.26</v>
       </c>
       <c r="O8" t="s">
         <v>102</v>
@@ -2532,25 +2586,25 @@
         <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="V8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z8">
         <v>56</v>
@@ -2565,40 +2619,40 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG8">
         <v>201208860</v>
       </c>
       <c r="AH8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI8">
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AU8" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -2607,19 +2661,19 @@
         <v>100</v>
       </c>
       <c r="BA8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="BD8">
         <v>0</v>
       </c>
       <c r="BK8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BL8" t="s">
         <v>100</v>
       </c>
       <c r="BM8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN8">
         <v>1</v>
@@ -2631,13 +2685,13 @@
         <v>21.47</v>
       </c>
       <c r="BQ8">
-        <v>245076.8939</v>
+        <v>1652.0219</v>
       </c>
       <c r="BR8">
-        <v>294092.2739</v>
+        <v>1982.4219</v>
       </c>
       <c r="BS8">
-        <v>3699203</v>
+        <v>3699795</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -2649,22 +2703,22 @@
         <v>80772</v>
       </c>
       <c r="BY8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE8">
         <v>73</v>
@@ -2676,28 +2730,28 @@
         <v>0</v>
       </c>
       <c r="CO8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="CQ8">
-        <v>4112145</v>
+        <v>4113466</v>
       </c>
       <c r="CR8" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="CS8" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="CT8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="CU8">
-        <v>100145001</v>
+        <v>100466001</v>
       </c>
       <c r="CV8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="CW8">
         <v>0</v>
@@ -2705,28 +2759,28 @@
     </row>
     <row r="9" spans="1:101">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>16142</v>
+        <v>16147</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
       </c>
       <c r="D9">
-        <v>11414.853</v>
+        <v>76.946</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>22829.71</v>
+        <v>153.89</v>
       </c>
       <c r="G9">
-        <v>4565.94</v>
+        <v>30.78</v>
       </c>
       <c r="H9">
-        <v>27395.65</v>
+        <v>184.67</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2738,13 +2792,13 @@
         <v>256</v>
       </c>
       <c r="L9">
-        <v>1419665.27</v>
+        <v>13086.05</v>
       </c>
       <c r="M9">
-        <v>283933.05</v>
+        <v>2617.21</v>
       </c>
       <c r="N9">
-        <v>1703598.32</v>
+        <v>15703.26</v>
       </c>
       <c r="O9" t="s">
         <v>102</v>
@@ -2756,25 +2810,25 @@
         <v>108</v>
       </c>
       <c r="R9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="V9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z9">
         <v>56</v>
@@ -2789,40 +2843,40 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG9">
         <v>201208860</v>
       </c>
       <c r="AH9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI9">
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AP9">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AU9" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -2831,19 +2885,19 @@
         <v>100</v>
       </c>
       <c r="BA9" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="BD9">
         <v>0</v>
       </c>
       <c r="BK9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BL9" t="s">
         <v>100</v>
       </c>
       <c r="BM9" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN9">
         <v>1</v>
@@ -2855,13 +2909,13 @@
         <v>2</v>
       </c>
       <c r="BQ9">
-        <v>22829.706</v>
+        <v>153.8912</v>
       </c>
       <c r="BR9">
-        <v>27395.646</v>
+        <v>184.6712</v>
       </c>
       <c r="BS9">
-        <v>3699204</v>
+        <v>3699796</v>
       </c>
       <c r="BU9">
         <v>0</v>
@@ -2873,22 +2927,22 @@
         <v>75271</v>
       </c>
       <c r="BY9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB9" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE9">
         <v>73</v>
@@ -2900,28 +2954,28 @@
         <v>0</v>
       </c>
       <c r="CO9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP9" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="CQ9">
-        <v>4112145</v>
+        <v>4113466</v>
       </c>
       <c r="CR9" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="CS9" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="CT9" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="CU9">
-        <v>100145001</v>
+        <v>100466001</v>
       </c>
       <c r="CV9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="CW9">
         <v>0</v>
@@ -2929,28 +2983,28 @@
     </row>
     <row r="10" spans="1:101">
       <c r="A10" s="1">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>16129</v>
+        <v>16142</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
       </c>
       <c r="D10">
-        <v>770</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>114.73</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>88342.10000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>17668.42</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>106010.52</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2962,43 +3016,43 @@
         <v>256</v>
       </c>
       <c r="L10">
-        <v>104111.7</v>
+        <v>1419665.27</v>
       </c>
       <c r="M10">
-        <v>20822.34</v>
+        <v>283933.05</v>
       </c>
       <c r="N10">
-        <v>124934.04</v>
+        <v>1703598.32</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
         <v>109</v>
       </c>
       <c r="R10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="V10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z10">
         <v>56</v>
@@ -3007,112 +3061,112 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>114.73</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG10">
         <v>201208860</v>
       </c>
       <c r="AH10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI10">
         <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT10" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="AU10" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="s">
         <v>100</v>
       </c>
       <c r="BA10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BD10">
         <v>0</v>
       </c>
+      <c r="BK10" t="s">
+        <v>119</v>
+      </c>
       <c r="BL10" t="s">
         <v>100</v>
       </c>
       <c r="BM10" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN10">
         <v>1</v>
       </c>
       <c r="BO10">
-        <v>114.73</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>114.73</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
-        <v>88342.10000000001</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>106010.52</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>3698978</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>138</v>
+        <v>3699202</v>
       </c>
       <c r="BU10">
         <v>0</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>80024</v>
+        <v>83774</v>
       </c>
       <c r="BY10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB10" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE10">
         <v>73</v>
@@ -3124,13 +3178,28 @@
         <v>0</v>
       </c>
       <c r="CO10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP10" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="CQ10">
-        <v>4112351</v>
+        <v>4112145</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU10">
+        <v>100145001</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>122</v>
       </c>
       <c r="CW10">
         <v>0</v>
@@ -3138,28 +3207,28 @@
     </row>
     <row r="11" spans="1:101">
       <c r="A11" s="1">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>16129</v>
+        <v>16142</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
       </c>
       <c r="D11">
-        <v>770</v>
+        <v>11414.853</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>100.9</v>
       </c>
       <c r="F11">
-        <v>1540</v>
+        <v>1151758.67</v>
       </c>
       <c r="G11">
-        <v>308</v>
+        <v>230351.73</v>
       </c>
       <c r="H11">
-        <v>1848</v>
+        <v>1382110.4</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -3171,43 +3240,43 @@
         <v>256</v>
       </c>
       <c r="L11">
-        <v>104111.7</v>
+        <v>1419665.27</v>
       </c>
       <c r="M11">
-        <v>20822.34</v>
+        <v>283933.05</v>
       </c>
       <c r="N11">
-        <v>124934.04</v>
+        <v>1703598.32</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="s">
         <v>109</v>
       </c>
       <c r="R11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="V11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z11">
         <v>56</v>
@@ -3216,109 +3285,115 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>100.9</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG11">
         <v>201208860</v>
       </c>
       <c r="AH11" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AP11">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AU11" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" t="s">
         <v>100</v>
       </c>
       <c r="BA11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BD11">
         <v>0</v>
       </c>
+      <c r="BK11" t="s">
+        <v>119</v>
+      </c>
       <c r="BL11" t="s">
         <v>100</v>
       </c>
       <c r="BM11" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN11">
         <v>1</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>100.9</v>
       </c>
       <c r="BP11">
-        <v>2</v>
+        <v>100.9</v>
       </c>
       <c r="BQ11">
-        <v>1540</v>
+        <v>1151758.6677</v>
       </c>
       <c r="BR11">
-        <v>1848</v>
+        <v>1382110.3977</v>
       </c>
       <c r="BS11">
-        <v>3698979</v>
+        <v>3699201</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>150</v>
       </c>
       <c r="BU11">
         <v>0</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>75271</v>
+        <v>80024</v>
       </c>
       <c r="BY11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ11" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE11">
         <v>73</v>
@@ -3330,13 +3405,28 @@
         <v>0</v>
       </c>
       <c r="CO11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP11" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="CQ11">
-        <v>4112351</v>
+        <v>4112145</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU11">
+        <v>100145001</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>122</v>
       </c>
       <c r="CW11">
         <v>0</v>
@@ -3344,28 +3434,28 @@
     </row>
     <row r="12" spans="1:101">
       <c r="A12" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>16129</v>
+        <v>16142</v>
       </c>
       <c r="C12" t="s">
         <v>100</v>
       </c>
       <c r="D12">
-        <v>770</v>
+        <v>11414.853</v>
       </c>
       <c r="E12">
-        <v>18.48</v>
+        <v>21.47</v>
       </c>
       <c r="F12">
-        <v>14229.6</v>
+        <v>245076.89</v>
       </c>
       <c r="G12">
-        <v>2845.92</v>
+        <v>49015.38</v>
       </c>
       <c r="H12">
-        <v>17075.52</v>
+        <v>294092.27</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -3377,13 +3467,13 @@
         <v>256</v>
       </c>
       <c r="L12">
-        <v>104111.7</v>
+        <v>1419665.27</v>
       </c>
       <c r="M12">
-        <v>20822.34</v>
+        <v>283933.05</v>
       </c>
       <c r="N12">
-        <v>124934.04</v>
+        <v>1703598.32</v>
       </c>
       <c r="O12" t="s">
         <v>102</v>
@@ -3395,25 +3485,25 @@
         <v>109</v>
       </c>
       <c r="R12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="V12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Z12">
         <v>56</v>
@@ -3422,46 +3512,46 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>18.48</v>
+        <v>21.47</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG12">
         <v>201208860</v>
       </c>
       <c r="AH12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI12">
         <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AS12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT12" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AU12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AV12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AW12">
         <v>0</v>
@@ -3470,34 +3560,37 @@
         <v>100</v>
       </c>
       <c r="BA12" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BD12">
         <v>0</v>
       </c>
+      <c r="BK12" t="s">
+        <v>119</v>
+      </c>
       <c r="BL12" t="s">
         <v>100</v>
       </c>
       <c r="BM12" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BN12">
         <v>1</v>
       </c>
       <c r="BO12">
-        <v>18.48</v>
+        <v>21.47</v>
       </c>
       <c r="BP12">
-        <v>18.48</v>
+        <v>21.47</v>
       </c>
       <c r="BQ12">
-        <v>14229.6</v>
+        <v>245076.8939</v>
       </c>
       <c r="BR12">
-        <v>17075.52</v>
+        <v>294092.2739</v>
       </c>
       <c r="BS12">
-        <v>3698980</v>
+        <v>3699203</v>
       </c>
       <c r="BU12">
         <v>0</v>
@@ -3509,22 +3602,22 @@
         <v>80772</v>
       </c>
       <c r="BY12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BZ12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="CA12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CB12" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="CC12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CD12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CE12">
         <v>73</v>
@@ -3536,15 +3629,2673 @@
         <v>0</v>
       </c>
       <c r="CO12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CP12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ12">
+        <v>4112145</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU12">
+        <v>100145001</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>16142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>11414.853</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>22829.71</v>
+      </c>
+      <c r="G13">
+        <v>4565.94</v>
+      </c>
+      <c r="H13">
+        <v>27395.65</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>256</v>
+      </c>
+      <c r="L13">
+        <v>1419665.27</v>
+      </c>
+      <c r="M13">
+        <v>283933.05</v>
+      </c>
+      <c r="N13">
+        <v>1703598.32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" t="s">
+        <v>115</v>
+      </c>
+      <c r="T13" t="s">
+        <v>119</v>
+      </c>
+      <c r="U13" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" t="s">
+        <v>126</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13">
+        <v>56</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG13">
+        <v>201208860</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT13" t="s">
         <v>143</v>
       </c>
-      <c r="CQ12">
+      <c r="AU13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>2</v>
+      </c>
+      <c r="BP13">
+        <v>2</v>
+      </c>
+      <c r="BQ13">
+        <v>22829.706</v>
+      </c>
+      <c r="BR13">
+        <v>27395.646</v>
+      </c>
+      <c r="BS13">
+        <v>3699204</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>75271</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE13">
+        <v>73</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ13">
+        <v>4112145</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU13">
+        <v>100145001</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101">
+      <c r="A14" s="1">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>16129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>770</v>
+      </c>
+      <c r="E14">
+        <v>114.73</v>
+      </c>
+      <c r="F14">
+        <v>88342.10000000001</v>
+      </c>
+      <c r="G14">
+        <v>17668.42</v>
+      </c>
+      <c r="H14">
+        <v>106010.52</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>256</v>
+      </c>
+      <c r="L14">
+        <v>104111.7</v>
+      </c>
+      <c r="M14">
+        <v>20822.34</v>
+      </c>
+      <c r="N14">
+        <v>124934.04</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>110</v>
+      </c>
+      <c r="R14" t="s">
+        <v>116</v>
+      </c>
+      <c r="T14" t="s">
+        <v>119</v>
+      </c>
+      <c r="U14" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z14">
+        <v>56</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>114.73</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG14">
+        <v>201208860</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>114.73</v>
+      </c>
+      <c r="BP14">
+        <v>114.73</v>
+      </c>
+      <c r="BQ14">
+        <v>88342.10000000001</v>
+      </c>
+      <c r="BR14">
+        <v>106010.52</v>
+      </c>
+      <c r="BS14">
+        <v>3698978</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>1</v>
+      </c>
+      <c r="BW14">
+        <v>80024</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE14">
+        <v>73</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ14">
         <v>4112351</v>
       </c>
-      <c r="CW12">
+      <c r="CW14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101">
+      <c r="A15" s="1">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>16129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>770</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1540</v>
+      </c>
+      <c r="G15">
+        <v>308</v>
+      </c>
+      <c r="H15">
+        <v>1848</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>256</v>
+      </c>
+      <c r="L15">
+        <v>104111.7</v>
+      </c>
+      <c r="M15">
+        <v>20822.34</v>
+      </c>
+      <c r="N15">
+        <v>124934.04</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" t="s">
+        <v>130</v>
+      </c>
+      <c r="X15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15">
+        <v>56</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG15">
+        <v>201208860</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>2</v>
+      </c>
+      <c r="BP15">
+        <v>2</v>
+      </c>
+      <c r="BQ15">
+        <v>1540</v>
+      </c>
+      <c r="BR15">
+        <v>1848</v>
+      </c>
+      <c r="BS15">
+        <v>3698979</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>75271</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE15">
+        <v>73</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ15">
+        <v>4112351</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101">
+      <c r="A16" s="1">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>16129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>770</v>
+      </c>
+      <c r="E16">
+        <v>18.48</v>
+      </c>
+      <c r="F16">
+        <v>14229.6</v>
+      </c>
+      <c r="G16">
+        <v>2845.92</v>
+      </c>
+      <c r="H16">
+        <v>17075.52</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>256</v>
+      </c>
+      <c r="L16">
+        <v>104111.7</v>
+      </c>
+      <c r="M16">
+        <v>20822.34</v>
+      </c>
+      <c r="N16">
+        <v>124934.04</v>
+      </c>
+      <c r="O16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" t="s">
+        <v>116</v>
+      </c>
+      <c r="T16" t="s">
+        <v>119</v>
+      </c>
+      <c r="U16" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" t="s">
+        <v>126</v>
+      </c>
+      <c r="W16" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z16">
+        <v>56</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>18.48</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG16">
+        <v>201208860</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>18.48</v>
+      </c>
+      <c r="BP16">
+        <v>18.48</v>
+      </c>
+      <c r="BQ16">
+        <v>14229.6</v>
+      </c>
+      <c r="BR16">
+        <v>17075.52</v>
+      </c>
+      <c r="BS16">
+        <v>3698980</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>80772</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE16">
+        <v>73</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ16">
+        <v>4112351</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:101">
+      <c r="A17" s="1">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>16145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>8.267999999999999</v>
+      </c>
+      <c r="E17">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="F17">
+        <v>663.48</v>
+      </c>
+      <c r="G17">
+        <v>132.7</v>
+      </c>
+      <c r="H17">
+        <v>796.1799999999999</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>256</v>
+      </c>
+      <c r="L17">
+        <v>1429.42</v>
+      </c>
+      <c r="M17">
+        <v>285.88</v>
+      </c>
+      <c r="N17">
+        <v>1715.3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17" t="s">
+        <v>126</v>
+      </c>
+      <c r="W17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z17">
+        <v>56</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG17">
+        <v>201208860</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="BP17">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="BQ17">
+        <v>663.4779</v>
+      </c>
+      <c r="BR17">
+        <v>796.1779</v>
+      </c>
+      <c r="BS17">
+        <v>3699785</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>1</v>
+      </c>
+      <c r="BW17">
+        <v>80024</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE17">
+        <v>73</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CQ17">
+        <v>4113469</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>171</v>
+      </c>
+      <c r="CU17">
+        <v>100469001</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:101">
+      <c r="A18" s="1">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>16145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>571.89</v>
+      </c>
+      <c r="F18">
+        <v>571.89</v>
+      </c>
+      <c r="G18">
+        <v>114.38</v>
+      </c>
+      <c r="H18">
+        <v>686.27</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>256</v>
+      </c>
+      <c r="L18">
+        <v>1429.42</v>
+      </c>
+      <c r="M18">
+        <v>285.88</v>
+      </c>
+      <c r="N18">
+        <v>1715.3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" t="s">
+        <v>124</v>
+      </c>
+      <c r="V18" t="s">
+        <v>126</v>
+      </c>
+      <c r="W18" t="s">
+        <v>131</v>
+      </c>
+      <c r="X18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z18">
+        <v>56</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>571.89</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG18">
+        <v>201208860</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN18">
+        <v>1</v>
+      </c>
+      <c r="BO18">
+        <v>571.89</v>
+      </c>
+      <c r="BP18">
+        <v>571.89</v>
+      </c>
+      <c r="BQ18">
+        <v>571.89</v>
+      </c>
+      <c r="BR18">
+        <v>686.27</v>
+      </c>
+      <c r="BS18">
+        <v>3699786</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>83774</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE18">
+        <v>73</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>158</v>
+      </c>
+      <c r="CQ18">
+        <v>4113469</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>171</v>
+      </c>
+      <c r="CU18">
+        <v>100469001</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:101">
+      <c r="A19" s="1">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>16145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>8.267999999999999</v>
+      </c>
+      <c r="E19">
+        <v>21.47</v>
+      </c>
+      <c r="F19">
+        <v>177.51</v>
+      </c>
+      <c r="G19">
+        <v>35.5</v>
+      </c>
+      <c r="H19">
+        <v>213.01</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>256</v>
+      </c>
+      <c r="L19">
+        <v>1429.42</v>
+      </c>
+      <c r="M19">
+        <v>285.88</v>
+      </c>
+      <c r="N19">
+        <v>1715.3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" t="s">
+        <v>117</v>
+      </c>
+      <c r="T19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U19" t="s">
+        <v>124</v>
+      </c>
+      <c r="V19" t="s">
+        <v>126</v>
+      </c>
+      <c r="W19" t="s">
+        <v>131</v>
+      </c>
+      <c r="X19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z19">
+        <v>56</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>21.47</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG19">
+        <v>201208860</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>21.47</v>
+      </c>
+      <c r="BP19">
+        <v>21.47</v>
+      </c>
+      <c r="BQ19">
+        <v>177.514</v>
+      </c>
+      <c r="BR19">
+        <v>213.014</v>
+      </c>
+      <c r="BS19">
+        <v>3699787</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>80772</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE19">
+        <v>73</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CQ19">
+        <v>4113469</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>171</v>
+      </c>
+      <c r="CU19">
+        <v>100469001</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:101">
+      <c r="A20" s="1">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>16145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>8.267999999999999</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>16.54</v>
+      </c>
+      <c r="G20">
+        <v>3.31</v>
+      </c>
+      <c r="H20">
+        <v>19.85</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>256</v>
+      </c>
+      <c r="L20">
+        <v>1429.42</v>
+      </c>
+      <c r="M20">
+        <v>285.88</v>
+      </c>
+      <c r="N20">
+        <v>1715.3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" t="s">
+        <v>119</v>
+      </c>
+      <c r="U20" t="s">
+        <v>124</v>
+      </c>
+      <c r="V20" t="s">
+        <v>126</v>
+      </c>
+      <c r="W20" t="s">
+        <v>131</v>
+      </c>
+      <c r="X20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z20">
+        <v>56</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG20">
+        <v>201208860</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
+        <v>2</v>
+      </c>
+      <c r="BP20">
+        <v>2</v>
+      </c>
+      <c r="BQ20">
+        <v>16.536</v>
+      </c>
+      <c r="BR20">
+        <v>19.846</v>
+      </c>
+      <c r="BS20">
+        <v>3699788</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>75271</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE20">
+        <v>73</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>158</v>
+      </c>
+      <c r="CQ20">
+        <v>4113469</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>171</v>
+      </c>
+      <c r="CU20">
+        <v>100469001</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:101">
+      <c r="A21" s="1">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>16146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>2.873</v>
+      </c>
+      <c r="E21">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="F21">
+        <v>230.55</v>
+      </c>
+      <c r="G21">
+        <v>46.11</v>
+      </c>
+      <c r="H21">
+        <v>276.66</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>256</v>
+      </c>
+      <c r="L21">
+        <v>498.6</v>
+      </c>
+      <c r="M21">
+        <v>99.72</v>
+      </c>
+      <c r="N21">
+        <v>598.3200000000001</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" t="s">
+        <v>118</v>
+      </c>
+      <c r="T21" t="s">
+        <v>119</v>
+      </c>
+      <c r="U21" t="s">
+        <v>125</v>
+      </c>
+      <c r="V21" t="s">
+        <v>126</v>
+      </c>
+      <c r="W21" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z21">
+        <v>56</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG21">
+        <v>201208860</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="BP21">
+        <v>80.24648000000001</v>
+      </c>
+      <c r="BQ21">
+        <v>230.5481</v>
+      </c>
+      <c r="BR21">
+        <v>276.6581</v>
+      </c>
+      <c r="BS21">
+        <v>3699789</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>80024</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE21">
+        <v>73</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ21">
+        <v>4113468</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU21">
+        <v>100468001</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:101">
+      <c r="A22" s="1">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>16146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>200.62</v>
+      </c>
+      <c r="F22">
+        <v>200.62</v>
+      </c>
+      <c r="G22">
+        <v>40.12</v>
+      </c>
+      <c r="H22">
+        <v>240.74</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>256</v>
+      </c>
+      <c r="L22">
+        <v>498.6</v>
+      </c>
+      <c r="M22">
+        <v>99.72</v>
+      </c>
+      <c r="N22">
+        <v>598.3200000000001</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>112</v>
+      </c>
+      <c r="R22" t="s">
+        <v>118</v>
+      </c>
+      <c r="T22" t="s">
+        <v>119</v>
+      </c>
+      <c r="U22" t="s">
+        <v>125</v>
+      </c>
+      <c r="V22" t="s">
+        <v>126</v>
+      </c>
+      <c r="W22" t="s">
+        <v>131</v>
+      </c>
+      <c r="X22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z22">
+        <v>56</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>200.62</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG22">
+        <v>201208860</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>200.62</v>
+      </c>
+      <c r="BP22">
+        <v>200.62</v>
+      </c>
+      <c r="BQ22">
+        <v>200.62</v>
+      </c>
+      <c r="BR22">
+        <v>240.74</v>
+      </c>
+      <c r="BS22">
+        <v>3699790</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>83774</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE22">
+        <v>73</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ22">
+        <v>4113468</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU22">
+        <v>100468001</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:101">
+      <c r="A23" s="1">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>16146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>2.873</v>
+      </c>
+      <c r="E23">
+        <v>21.47</v>
+      </c>
+      <c r="F23">
+        <v>61.68</v>
+      </c>
+      <c r="G23">
+        <v>12.34</v>
+      </c>
+      <c r="H23">
+        <v>74.02</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>256</v>
+      </c>
+      <c r="L23">
+        <v>498.6</v>
+      </c>
+      <c r="M23">
+        <v>99.72</v>
+      </c>
+      <c r="N23">
+        <v>598.3200000000001</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23" t="s">
+        <v>118</v>
+      </c>
+      <c r="T23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U23" t="s">
+        <v>125</v>
+      </c>
+      <c r="V23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W23" t="s">
+        <v>131</v>
+      </c>
+      <c r="X23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z23">
+        <v>56</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>21.47</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG23">
+        <v>201208860</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>21.47</v>
+      </c>
+      <c r="BP23">
+        <v>21.47</v>
+      </c>
+      <c r="BQ23">
+        <v>61.6833</v>
+      </c>
+      <c r="BR23">
+        <v>74.02330000000001</v>
+      </c>
+      <c r="BS23">
+        <v>3699791</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>80772</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE23">
+        <v>73</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ23">
+        <v>4113468</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU23">
+        <v>100468001</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:101">
+      <c r="A24" s="1">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>16146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>2.873</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>5.75</v>
+      </c>
+      <c r="G24">
+        <v>1.15</v>
+      </c>
+      <c r="H24">
+        <v>6.9</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>256</v>
+      </c>
+      <c r="L24">
+        <v>498.6</v>
+      </c>
+      <c r="M24">
+        <v>99.72</v>
+      </c>
+      <c r="N24">
+        <v>598.3200000000001</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24" t="s">
+        <v>118</v>
+      </c>
+      <c r="T24" t="s">
+        <v>119</v>
+      </c>
+      <c r="U24" t="s">
+        <v>125</v>
+      </c>
+      <c r="V24" t="s">
+        <v>126</v>
+      </c>
+      <c r="W24" t="s">
+        <v>131</v>
+      </c>
+      <c r="X24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z24">
+        <v>56</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG24">
+        <v>201208860</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>2</v>
+      </c>
+      <c r="BP24">
+        <v>2</v>
+      </c>
+      <c r="BQ24">
+        <v>5.746</v>
+      </c>
+      <c r="BR24">
+        <v>6.896</v>
+      </c>
+      <c r="BS24">
+        <v>3699792</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>75271</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE24">
+        <v>73</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ24">
+        <v>4113468</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU24">
+        <v>100468001</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW24">
         <v>0</v>
       </c>
     </row>
